--- a/busa3021.xlsx
+++ b/busa3021.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Projects/AusJobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/thaihongngoc_phan_students_mq_edu_au/Documents/S2-2024/BUSA 3021/Assignments/AusJobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0A1E9-5A01-5A45-80E2-F8F349A5BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{56E0A1E9-5A01-5A45-80E2-F8F349A5BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A531F6C7-0740-4A47-96B6-E50FCD4C2F17}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$G$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="270">
   <si>
     <t>COMPANY NAME</t>
   </si>
@@ -828,6 +829,12 @@
   </si>
   <si>
     <t>Education</t>
+  </si>
+  <si>
+    <t>Turnover rate</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:V350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2701,7 +2708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>185</v>
       </c>
@@ -2721,7 +2728,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>185</v>
       </c>
@@ -2741,7 +2748,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>185</v>
       </c>
@@ -2761,7 +2768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>185</v>
       </c>
@@ -2781,7 +2788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>185</v>
       </c>
@@ -2801,7 +2808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>185</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>185</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>185</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>185</v>
       </c>
@@ -2881,7 +2888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>185</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>185</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>185</v>
       </c>
@@ -2941,7 +2948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>196</v>
       </c>
@@ -2951,18 +2958,17 @@
       <c r="C77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>188</v>
+      <c r="D77" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E77" s="15">
         <v>51</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>196</v>
       </c>
@@ -2973,16 +2979,16 @@
         <v>72</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>196</v>
       </c>
@@ -2993,16 +2999,16 @@
         <v>73</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E79" s="15">
         <v>31</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>196</v>
       </c>
@@ -3013,13 +3019,13 @@
         <v>74</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E80" s="15">
         <v>40</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3033,13 +3039,13 @@
         <v>75</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E81" s="15">
         <v>44</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3053,13 +3059,13 @@
         <v>76</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E82" s="15">
         <v>44</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>77</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E83" s="15">
         <v>40</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3093,13 +3099,13 @@
         <v>78</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E84" s="15">
         <v>36</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3113,13 +3119,13 @@
         <v>79</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E85" s="15">
         <v>42</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3133,13 +3139,13 @@
         <v>80</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="E86" s="15">
         <v>31</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,13 +3159,13 @@
         <v>81</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E87" s="15">
         <v>61</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E88" s="15">
         <v>94</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3193,13 +3199,13 @@
         <v>82</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E89" s="15">
         <v>55</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,13 +3219,13 @@
         <v>83</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E90" s="15">
         <v>54</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3233,13 +3239,13 @@
         <v>84</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E91" s="15">
         <v>47</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3253,13 +3259,13 @@
         <v>85</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E92" s="15">
         <v>60</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3273,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E93" s="15">
         <v>50</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,13 +3299,13 @@
         <v>86</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="E94" s="15">
         <v>31</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3313,13 +3319,13 @@
         <v>87</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="E95" s="15">
         <v>43</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3333,16 +3339,16 @@
         <v>88</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E96" s="15">
         <v>35</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>196</v>
       </c>
@@ -3353,16 +3359,16 @@
         <v>89</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E97" s="15">
         <v>54</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>196</v>
       </c>
@@ -3373,16 +3379,16 @@
         <v>90</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>196</v>
       </c>
@@ -3393,16 +3399,16 @@
         <v>91</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E99" s="15">
         <v>84</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>196</v>
       </c>
@@ -3413,16 +3419,16 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E100" s="15">
         <v>64</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>196</v>
       </c>
@@ -3433,16 +3439,16 @@
         <v>92</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E101" s="15">
         <v>47</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>196</v>
       </c>
@@ -3453,16 +3459,16 @@
         <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="E102" s="15">
         <v>44</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>196</v>
       </c>
@@ -3473,16 +3479,16 @@
         <v>93</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E103" s="15">
         <v>31</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>196</v>
       </c>
@@ -3493,16 +3499,16 @@
         <v>94</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E104" s="15">
         <v>63</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>196</v>
       </c>
@@ -3513,16 +3519,16 @@
         <v>95</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E105" s="15">
         <v>35</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>196</v>
       </c>
@@ -3533,16 +3539,16 @@
         <v>96</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E106" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
         <v>215</v>
       </c>
@@ -3553,17 +3559,16 @@
         <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E107" s="10">
         <v>484</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
         <v>215</v>
       </c>
@@ -3574,16 +3579,16 @@
         <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E108" s="10">
         <v>572</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
         <v>215</v>
       </c>
@@ -3594,16 +3599,16 @@
         <v>97</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E109" s="10">
         <v>423</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
         <v>215</v>
       </c>
@@ -3614,16 +3619,16 @@
         <v>42</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E110" s="10">
         <v>315</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
         <v>215</v>
       </c>
@@ -3634,16 +3639,16 @@
         <v>246</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E111" s="10">
         <v>381</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>215</v>
       </c>
@@ -3654,13 +3659,13 @@
         <v>98</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E112" s="10">
         <v>222</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,13 +3679,13 @@
         <v>26</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,13 +3699,13 @@
         <v>29</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E114" s="10">
         <v>336</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3714,13 +3719,13 @@
         <v>43</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E115" s="10">
         <v>182</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3734,13 +3739,13 @@
         <v>99</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E116" s="10">
         <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,13 +3759,13 @@
         <v>100</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E117" s="10">
         <v>152</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,13 +3779,13 @@
         <v>101</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E118" s="10">
         <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3794,13 +3799,13 @@
         <v>102</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="E119" s="10">
         <v>961</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3814,13 +3819,13 @@
         <v>103</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E120" s="10">
         <v>465</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,13 +3839,13 @@
         <v>104</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="E121" s="10">
         <v>322</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3854,13 +3859,13 @@
         <v>105</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3874,13 +3879,13 @@
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E123" s="10">
         <v>423</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,13 +3899,13 @@
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E124" s="10">
         <v>302</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3914,13 +3919,13 @@
         <v>106</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="E125" s="10">
         <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,13 +3939,13 @@
         <v>107</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E126" s="10">
         <v>352</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,13 +3959,13 @@
         <v>108</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E127" s="10">
         <v>245</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3974,16 +3979,16 @@
         <v>109</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="E128" s="10">
         <v>125</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
         <v>215</v>
       </c>
@@ -3994,16 +3999,16 @@
         <v>110</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E129" s="10">
         <v>141</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>215</v>
       </c>
@@ -4014,16 +4019,16 @@
         <v>111</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="E130" s="10">
         <v>352</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
         <v>215</v>
       </c>
@@ -4034,16 +4039,16 @@
         <v>252</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E131" s="10">
         <v>287</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
         <v>215</v>
       </c>
@@ -4054,16 +4059,16 @@
         <v>112</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E132" s="10">
         <v>202</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
         <v>215</v>
       </c>
@@ -4074,16 +4079,16 @@
         <v>113</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E133" s="10">
         <v>140</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="16" t="s">
         <v>215</v>
       </c>
@@ -4094,16 +4099,16 @@
         <v>114</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E134" s="10">
         <v>458</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
         <v>215</v>
       </c>
@@ -4114,16 +4119,16 @@
         <v>115</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E135" s="10">
         <v>104</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
         <v>215</v>
       </c>
@@ -4134,16 +4139,16 @@
         <v>5</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="E136" s="10">
         <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>227</v>
       </c>
@@ -4154,17 +4159,16 @@
         <v>116</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E137" s="10">
         <v>1385</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G137" s="11"/>
-    </row>
-    <row r="138" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>227</v>
       </c>
@@ -4175,16 +4179,16 @@
         <v>51</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E138" s="10">
         <v>1960</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>227</v>
       </c>
@@ -4195,16 +4199,16 @@
         <v>53</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E139" s="10">
         <v>2386</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>227</v>
       </c>
@@ -4215,16 +4219,16 @@
         <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E140" s="10">
         <v>1581</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>227</v>
       </c>
@@ -4235,16 +4239,16 @@
         <v>117</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E141" s="10">
         <v>1104</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>185</v>
       </c>
@@ -4255,17 +4259,16 @@
         <v>73</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E142" s="15">
         <v>27</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G142" s="11"/>
-    </row>
-    <row r="143" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>185</v>
       </c>
@@ -4276,16 +4279,16 @@
         <v>118</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E143" s="15">
         <v>29</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>185</v>
       </c>
@@ -4296,13 +4299,13 @@
         <v>119</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E144" s="15">
         <v>29</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4316,13 +4319,13 @@
         <v>120</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E145" s="15">
         <v>29</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4336,13 +4339,13 @@
         <v>121</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E146" s="15">
         <v>20</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4356,13 +4359,13 @@
         <v>122</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E147" s="15">
         <v>21</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4376,13 +4379,13 @@
         <v>123</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E148" s="15">
         <v>13</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4396,13 +4399,13 @@
         <v>124</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E149" s="15" t="s">
         <v>185</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>125</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E150" s="15">
         <v>11</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4436,13 +4439,13 @@
         <v>126</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E151" s="15">
         <v>23</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4456,13 +4459,13 @@
         <v>127</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E152" s="15">
         <v>14</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4476,13 +4479,13 @@
         <v>128</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E153" s="15" t="s">
         <v>185</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4496,13 +4499,13 @@
         <v>129</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E154" s="15">
         <v>13</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4516,13 +4519,13 @@
         <v>130</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E155" s="15">
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4536,13 +4539,13 @@
         <v>131</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E156" s="15">
         <v>21</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4556,13 +4559,13 @@
         <v>132</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E157" s="15">
         <v>22</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4576,13 +4579,13 @@
         <v>133</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E158" s="15">
         <v>10</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4596,13 +4599,13 @@
         <v>256</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E159" s="15">
         <v>23</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,16 +4619,16 @@
         <v>134</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E160" s="15">
         <v>12</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>185</v>
       </c>
@@ -4636,16 +4639,16 @@
         <v>135</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E161" s="15">
         <v>14</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>196</v>
       </c>
@@ -4656,17 +4659,16 @@
         <v>55</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E162" s="10">
         <v>40</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G162" s="11"/>
-    </row>
-    <row r="163" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>196</v>
       </c>
@@ -4677,16 +4679,16 @@
         <v>44</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E163" s="10">
         <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>196</v>
       </c>
@@ -4697,16 +4699,16 @@
         <v>93</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E164" s="10">
         <v>58</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>196</v>
       </c>
@@ -4717,16 +4719,16 @@
         <v>81</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="E165" s="10">
         <v>77</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>196</v>
       </c>
@@ -4737,16 +4739,16 @@
         <v>66</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E166" s="10">
         <v>41</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>196</v>
       </c>
@@ -4757,16 +4759,16 @@
         <v>68</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E167" s="10">
         <v>31</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>196</v>
       </c>
@@ -4777,16 +4779,16 @@
         <v>59</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E168" s="10">
         <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>196</v>
       </c>
@@ -4797,16 +4799,16 @@
         <v>136</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E169" s="10">
         <v>62</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>196</v>
       </c>
@@ -4817,16 +4819,16 @@
         <v>82</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>196</v>
       </c>
@@ -4837,16 +4839,16 @@
         <v>137</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E171" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>196</v>
       </c>
@@ -4857,16 +4859,16 @@
         <v>138</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E172" s="10">
         <v>20</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>196</v>
       </c>
@@ -4877,16 +4879,16 @@
         <v>139</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="E173" s="10">
         <v>30</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>196</v>
       </c>
@@ -4897,16 +4899,16 @@
         <v>140</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E174" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>196</v>
       </c>
@@ -4917,16 +4919,16 @@
         <v>85</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E175" s="10">
         <v>68</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>196</v>
       </c>
@@ -4937,16 +4939,16 @@
         <v>141</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E176" s="10">
         <v>43</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>196</v>
       </c>
@@ -4957,16 +4959,16 @@
         <v>95</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E177" s="10">
         <v>40</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>196</v>
       </c>
@@ -4977,16 +4979,16 @@
         <v>142</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E178" s="10">
         <v>35</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>196</v>
       </c>
@@ -4997,16 +4999,16 @@
         <v>76</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E179" s="10">
         <v>64</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>196</v>
       </c>
@@ -5017,16 +5019,16 @@
         <v>143</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E180" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>196</v>
       </c>
@@ -5037,16 +5039,16 @@
         <v>144</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E181" s="10">
         <v>34</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>196</v>
       </c>
@@ -5057,16 +5059,16 @@
         <v>145</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E182" s="10">
         <v>42</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>196</v>
       </c>
@@ -5077,16 +5079,16 @@
         <v>146</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E183" s="10">
         <v>59</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>196</v>
       </c>
@@ -5097,16 +5099,16 @@
         <v>147</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E184" s="10">
         <v>80</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>196</v>
       </c>
@@ -5117,16 +5119,16 @@
         <v>148</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E185" s="10">
         <v>64</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>196</v>
       </c>
@@ -5137,16 +5139,16 @@
         <v>149</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E186" s="10">
         <v>44</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>196</v>
       </c>
@@ -5157,16 +5159,16 @@
         <v>150</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E187" s="10">
         <v>82</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>196</v>
       </c>
@@ -5177,16 +5179,16 @@
         <v>58</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E188" s="10">
         <v>34</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>196</v>
       </c>
@@ -5197,16 +5199,16 @@
         <v>19</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E189" s="10">
         <v>54</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>196</v>
       </c>
@@ -5217,16 +5219,16 @@
         <v>10</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E190" s="10">
         <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>196</v>
       </c>
@@ -5237,16 +5239,16 @@
         <v>151</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E191" s="10">
         <v>36</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>215</v>
       </c>
@@ -5257,15 +5259,14 @@
         <v>31</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G192" s="11"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="193" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
@@ -5278,13 +5279,13 @@
         <v>152</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E193" s="10">
         <v>330</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5298,13 +5299,13 @@
         <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E194" s="10">
         <v>103</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5318,13 +5319,13 @@
         <v>43</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E195" s="10">
         <v>217</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5338,13 +5339,13 @@
         <v>29</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E196" s="10">
         <v>336</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5358,13 +5359,13 @@
         <v>153</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E197" s="10">
         <v>109</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5378,13 +5379,13 @@
         <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E198" s="10">
         <v>787</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5398,13 +5399,13 @@
         <v>154</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="E199" s="10">
         <v>390</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,13 +5419,13 @@
         <v>114</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E200" s="10">
         <v>498</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,13 +5439,13 @@
         <v>155</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5458,13 +5459,13 @@
         <v>101</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E202" s="10">
         <v>144</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5478,13 +5479,13 @@
         <v>156</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5498,13 +5499,13 @@
         <v>42</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5518,13 +5519,13 @@
         <v>157</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E205" s="10">
         <v>668</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,13 +5539,13 @@
         <v>158</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5558,13 +5559,13 @@
         <v>159</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="E207" s="10">
         <v>258</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5578,16 +5579,16 @@
         <v>160</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="E208" s="10">
         <v>873</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>215</v>
       </c>
@@ -5598,16 +5599,16 @@
         <v>161</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E209" s="10">
         <v>294</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>215</v>
       </c>
@@ -5618,16 +5619,16 @@
         <v>162</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="E210" s="10">
         <v>465</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>215</v>
       </c>
@@ -5638,16 +5639,16 @@
         <v>163</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E211" s="10">
         <v>651</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>215</v>
       </c>
@@ -5658,16 +5659,16 @@
         <v>110</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="E212" s="10">
         <v>250</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>215</v>
       </c>
@@ -5678,16 +5679,16 @@
         <v>164</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>215</v>
       </c>
@@ -5698,16 +5699,16 @@
         <v>165</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="E214" s="10">
         <v>149</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>215</v>
       </c>
@@ -5718,16 +5719,16 @@
         <v>32</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E215" s="10">
         <v>552</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>215</v>
       </c>
@@ -5738,16 +5739,16 @@
         <v>166</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E216" s="10">
         <v>172</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -5758,16 +5759,16 @@
         <v>167</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E217" s="10">
         <v>299</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>215</v>
       </c>
@@ -5778,16 +5779,16 @@
         <v>168</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E218" s="10">
         <v>713</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>215</v>
       </c>
@@ -5798,16 +5799,16 @@
         <v>169</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E219" s="10">
         <v>882</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>215</v>
       </c>
@@ -5818,16 +5819,16 @@
         <v>170</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E220" s="10">
         <v>100</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>215</v>
       </c>
@@ -5838,16 +5839,16 @@
         <v>171</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E221" s="10">
         <v>297</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>227</v>
       </c>
@@ -5858,17 +5859,16 @@
         <v>116</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E222" s="10">
         <v>1399</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G222" s="11"/>
-    </row>
-    <row r="223" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>227</v>
       </c>
@@ -5879,16 +5879,16 @@
         <v>117</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E223" s="10">
         <v>2241</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>227</v>
       </c>
@@ -5899,13 +5899,13 @@
         <v>172</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E224" s="10">
         <v>3387</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5919,13 +5919,13 @@
         <v>173</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="E225" s="10">
         <v>1423</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5939,13 +5939,13 @@
         <v>52</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E226" s="10">
         <v>1622</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5959,13 +5959,13 @@
         <v>174</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>227</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,13 +5979,13 @@
         <v>175</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>227</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5999,13 +5999,13 @@
         <v>176</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E229" s="10" t="s">
         <v>227</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,13 +6019,13 @@
         <v>177</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E230" s="10">
         <v>2353</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6039,13 +6039,13 @@
         <v>178</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E231" s="10" t="s">
         <v>227</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6218,937 +6218,690 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B2BF7-CF60-7A4B-B44E-11B74C92457A}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A350"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="195" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
